--- a/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_PSI_7_1_2013_ to_6_30_2015.xlsx
+++ b/Phase3_Hospitals_Hip_Knee_Reports/Better_Report_PSI_7_1_2013_ to_6_30_2015.xlsx
@@ -27,13 +27,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId18"/>
-    <pivotCache cacheId="13" r:id="rId19"/>
-    <pivotCache cacheId="20" r:id="rId20"/>
-    <pivotCache cacheId="27" r:id="rId21"/>
-    <pivotCache cacheId="34" r:id="rId22"/>
-    <pivotCache cacheId="41" r:id="rId23"/>
-    <pivotCache cacheId="50" r:id="rId24"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="2" r:id="rId20"/>
+    <pivotCache cacheId="3" r:id="rId21"/>
+    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="5" r:id="rId23"/>
+    <pivotCache cacheId="6" r:id="rId24"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1859,16 +1859,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1878,10 +1878,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6853,7 +6853,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6946,7 +6946,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F32" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7252,7 +7252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7335,7 +7335,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F128" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8483,7 +8483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F19" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8658,7 +8658,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F100" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9533,7 +9533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B7:F108" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10871,10 +10871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10887,38 +10890,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -11039,22 +11042,22 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14269,6 +14272,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -14285,38 +14291,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>349</v>
       </c>
@@ -14340,7 +14346,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -14588,22 +14594,22 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14983,6 +14989,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14997,42 +15006,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -15055,71 +15064,71 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15134,6 +15143,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15150,41 +15162,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -15205,7 +15217,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -16851,22 +16863,22 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
@@ -19379,6 +19391,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -19395,41 +19410,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -19450,7 +19465,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -21259,22 +21274,22 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
@@ -24153,6 +24168,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24169,41 +24187,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24224,7 +24242,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -24714,22 +24732,22 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -25474,6 +25492,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25490,38 +25511,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -25542,7 +25563,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -25622,22 +25643,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -25783,6 +25804,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25854,62 +25878,62 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -25924,6 +25948,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25937,42 +25964,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -25995,62 +26022,62 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -26065,6 +26092,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26081,41 +26111,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -26136,7 +26166,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -28279,22 +28309,22 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
